--- a/Android/Tables.xlsx
+++ b/Android/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\StevePro7\Blogger\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E510F5-3844-41CF-8C30-55BE1A7451D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF93C8-C157-479E-B113-5BB230CF3BDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="4602" windowWidth="12000" windowHeight="6978" xr2:uid="{302A4331-1DB9-44D9-B25D-54CAB60F1EE1}"/>
   </bookViews>

--- a/Android/Tables.xlsx
+++ b/Android/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\StevePro7\Blogger\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF93C8-C157-479E-B113-5BB230CF3BDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35FDAAD-BE2E-420C-868E-A999C79C463B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="4602" windowWidth="12000" windowHeight="6978" xr2:uid="{302A4331-1DB9-44D9-B25D-54CAB60F1EE1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Compile using Android version (Target Framework)</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>Install location</t>
+  </si>
+  <si>
+    <t>Android 9.0 (Level 28 - Pie)</t>
+  </si>
+  <si>
+    <t>Prefer Internal</t>
+  </si>
+  <si>
+    <t>Minimum Android version</t>
+  </si>
+  <si>
+    <t>Target Android version</t>
+  </si>
+  <si>
+    <t>Android Options</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>armeabi-v7a</t>
+  </si>
+  <si>
+    <t>arm64-v8a</t>
   </si>
 </sst>
 </file>
@@ -406,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B51034-60CB-4111-8592-897BD6231B5F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -453,6 +477,41 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
